--- a/MangaRetriveal/pop.xlsx
+++ b/MangaRetriveal/pop.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,222 +348,2202 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>35040744</v>
+        <v>51910830</v>
       </c>
       <c r="B1">
-        <v>102729575</v>
+        <v>380509731</v>
       </c>
       <c r="C1">
-        <v>337</v>
+        <v>317119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>35040369</v>
+        <v>52141198</v>
       </c>
       <c r="B2">
-        <v>167265391</v>
+        <v>52358368</v>
       </c>
       <c r="C2">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>35040373</v>
+        <v>52141113</v>
       </c>
       <c r="B3">
-        <v>43202735</v>
+        <v>2017307</v>
       </c>
       <c r="C3">
-        <v>1427</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>35041682</v>
+        <v>52140931</v>
       </c>
       <c r="B4">
-        <v>23610288</v>
+        <v>11186837</v>
       </c>
       <c r="C4">
-        <v>722</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>35040748</v>
+        <v>52140308</v>
       </c>
       <c r="B5">
-        <v>21486165</v>
+        <v>6562996</v>
       </c>
       <c r="C5">
-        <v>4038</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>35041680</v>
+        <v>52140452</v>
       </c>
       <c r="B6">
-        <v>60403623</v>
+        <v>385874803</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>35040264</v>
+        <v>51744178</v>
       </c>
       <c r="B7">
-        <v>13809929</v>
+        <v>412072339</v>
       </c>
       <c r="C7">
-        <v>2249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>35039587</v>
+        <v>52140291</v>
       </c>
       <c r="B8">
-        <v>2301165</v>
+        <v>281357743</v>
       </c>
       <c r="C8">
-        <v>7165</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>35041377</v>
+        <v>52140764</v>
       </c>
       <c r="B9">
-        <v>384936020</v>
+        <v>378350622</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>9889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>35041239</v>
+        <v>52067866</v>
       </c>
       <c r="B10">
-        <v>358748815</v>
+        <v>15080107</v>
       </c>
       <c r="C10">
-        <v>226</v>
+        <v>57992</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>34652431</v>
+        <v>52140819</v>
       </c>
       <c r="B11">
-        <v>220853559</v>
+        <v>52358368</v>
       </c>
       <c r="C11">
-        <v>1743</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>35040657</v>
+        <v>52140442</v>
       </c>
       <c r="B12">
-        <v>62445309</v>
+        <v>402802225</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>35040976</v>
+        <v>52140362</v>
       </c>
       <c r="B13">
-        <v>60403623</v>
+        <v>89074076</v>
       </c>
       <c r="C13">
-        <v>674</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>35040719</v>
+        <v>52140453</v>
       </c>
       <c r="B14">
-        <v>170091540</v>
+        <v>52358368</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>35040300</v>
+        <v>52136275</v>
       </c>
       <c r="B15">
-        <v>299999428</v>
+        <v>20962381</v>
       </c>
       <c r="C15">
-        <v>837</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>35039695</v>
+        <v>52140011</v>
       </c>
       <c r="B16">
-        <v>3161451</v>
+        <v>269007338</v>
       </c>
       <c r="C16">
-        <v>571</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>35040234</v>
+        <v>52139294</v>
       </c>
       <c r="B17">
-        <v>30791970</v>
+        <v>342241862</v>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>35039276</v>
+        <v>52140420</v>
       </c>
       <c r="B18">
-        <v>64151081</v>
+        <v>14533391</v>
       </c>
       <c r="C18">
-        <v>285</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>35040238</v>
+        <v>52113012</v>
       </c>
       <c r="B19">
-        <v>171362713</v>
+        <v>232766371</v>
       </c>
       <c r="C19">
-        <v>913</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>35038666</v>
+        <v>52140175</v>
       </c>
       <c r="B20">
-        <v>13809929</v>
+        <v>32318637</v>
       </c>
       <c r="C20">
-        <v>719</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>52139668</v>
+      </c>
+      <c r="B21">
+        <v>378350622</v>
+      </c>
+      <c r="C21">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>52133596</v>
+      </c>
+      <c r="B22">
+        <v>20962381</v>
+      </c>
+      <c r="C22">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>52138813</v>
+      </c>
+      <c r="B23">
+        <v>406691806</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>52138768</v>
+      </c>
+      <c r="B24">
+        <v>397511905</v>
+      </c>
+      <c r="C24">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>52139336</v>
+      </c>
+      <c r="B25">
+        <v>269007338</v>
+      </c>
+      <c r="C25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>52138449</v>
+      </c>
+      <c r="B26">
+        <v>287477875</v>
+      </c>
+      <c r="C26">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>52138383</v>
+      </c>
+      <c r="B27">
+        <v>385874803</v>
+      </c>
+      <c r="C27">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>52139082</v>
+      </c>
+      <c r="B28">
+        <v>26490952</v>
+      </c>
+      <c r="C28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>52138863</v>
+      </c>
+      <c r="B29">
+        <v>429893552</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>52138640</v>
+      </c>
+      <c r="B30">
+        <v>298228002</v>
+      </c>
+      <c r="C30">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>52138094</v>
+      </c>
+      <c r="B31">
+        <v>287477875</v>
+      </c>
+      <c r="C31">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>52138403</v>
+      </c>
+      <c r="B32">
+        <v>402902474</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>52138328</v>
+      </c>
+      <c r="B33">
+        <v>402902048</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>52138691</v>
+      </c>
+      <c r="B34">
+        <v>429893552</v>
+      </c>
+      <c r="C34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>52138165</v>
+      </c>
+      <c r="B35">
+        <v>402802225</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>52137283</v>
+      </c>
+      <c r="B36">
+        <v>87685</v>
+      </c>
+      <c r="C36">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>52136773</v>
+      </c>
+      <c r="B37">
+        <v>327715472</v>
+      </c>
+      <c r="C37">
+        <v>9934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>52137754</v>
+      </c>
+      <c r="B38">
+        <v>420432055</v>
+      </c>
+      <c r="C38">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>52087411</v>
+      </c>
+      <c r="B39">
+        <v>279218097</v>
+      </c>
+      <c r="C39">
+        <v>20146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>52075980</v>
+      </c>
+      <c r="B40">
+        <v>59681529</v>
+      </c>
+      <c r="C40">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>52137385</v>
+      </c>
+      <c r="B41">
+        <v>397633168</v>
+      </c>
+      <c r="C41">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>51990637</v>
+      </c>
+      <c r="B42">
+        <v>1749270</v>
+      </c>
+      <c r="C42">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>52136974</v>
+      </c>
+      <c r="B43">
+        <v>22320797</v>
+      </c>
+      <c r="C43">
+        <v>91796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>52136637</v>
+      </c>
+      <c r="B44">
+        <v>405491676</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>52134634</v>
+      </c>
+      <c r="B45">
+        <v>10787117</v>
+      </c>
+      <c r="C45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>52136768</v>
+      </c>
+      <c r="B46">
+        <v>9296911</v>
+      </c>
+      <c r="C46">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>52135911</v>
+      </c>
+      <c r="B47">
+        <v>21677020</v>
+      </c>
+      <c r="C47">
+        <v>28153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>52136335</v>
+      </c>
+      <c r="B48">
+        <v>385874803</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>52133666</v>
+      </c>
+      <c r="B49">
+        <v>8534333</v>
+      </c>
+      <c r="C49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>52136146</v>
+      </c>
+      <c r="B50">
+        <v>35432054</v>
+      </c>
+      <c r="C50">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>52136168</v>
+      </c>
+      <c r="B51">
+        <v>314817875</v>
+      </c>
+      <c r="C51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>52136161</v>
+      </c>
+      <c r="B52">
+        <v>21361373</v>
+      </c>
+      <c r="C52">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52135203</v>
+      </c>
+      <c r="B53">
+        <v>22539907</v>
+      </c>
+      <c r="C53">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>52135139</v>
+      </c>
+      <c r="B54">
+        <v>570808</v>
+      </c>
+      <c r="C54">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>52135141</v>
+      </c>
+      <c r="B55">
+        <v>44243841</v>
+      </c>
+      <c r="C55">
+        <v>17390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>52135132</v>
+      </c>
+      <c r="B56">
+        <v>372394109</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>52134787</v>
+      </c>
+      <c r="B57">
+        <v>402902474</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>52134830</v>
+      </c>
+      <c r="B58">
+        <v>29559713</v>
+      </c>
+      <c r="C58">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>52134674</v>
+      </c>
+      <c r="B59">
+        <v>402902048</v>
+      </c>
+      <c r="C59">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>52133717</v>
+      </c>
+      <c r="B60">
+        <v>7770825</v>
+      </c>
+      <c r="C60">
+        <v>15212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>52133899</v>
+      </c>
+      <c r="B61">
+        <v>424400709</v>
+      </c>
+      <c r="C61">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>52134582</v>
+      </c>
+      <c r="B62">
+        <v>405202277</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>52134170</v>
+      </c>
+      <c r="B63">
+        <v>385874803</v>
+      </c>
+      <c r="C63">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>52134791</v>
+      </c>
+      <c r="B64">
+        <v>355356374</v>
+      </c>
+      <c r="C64">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>52133736</v>
+      </c>
+      <c r="B65">
+        <v>37092186</v>
+      </c>
+      <c r="C65">
+        <v>9473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>52134146</v>
+      </c>
+      <c r="B66">
+        <v>378350622</v>
+      </c>
+      <c r="C66">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>52134145</v>
+      </c>
+      <c r="B67">
+        <v>12323650</v>
+      </c>
+      <c r="C67">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>52134119</v>
+      </c>
+      <c r="B68">
+        <v>277764629</v>
+      </c>
+      <c r="C68">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>52132915</v>
+      </c>
+      <c r="B69">
+        <v>398517334</v>
+      </c>
+      <c r="C69">
+        <v>33748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>52134053</v>
+      </c>
+      <c r="B70">
+        <v>273379507</v>
+      </c>
+      <c r="C70">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>52108214</v>
+      </c>
+      <c r="B71">
+        <v>10901130</v>
+      </c>
+      <c r="C71">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>52133787</v>
+      </c>
+      <c r="B72">
+        <v>331803107</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>52129665</v>
+      </c>
+      <c r="B73">
+        <v>49702792</v>
+      </c>
+      <c r="C73">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>52133138</v>
+      </c>
+      <c r="B74">
+        <v>15824460</v>
+      </c>
+      <c r="C74">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>52133492</v>
+      </c>
+      <c r="B75">
+        <v>249167094</v>
+      </c>
+      <c r="C75">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>52133433</v>
+      </c>
+      <c r="B76">
+        <v>9486869</v>
+      </c>
+      <c r="C76">
+        <v>47655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>52130412</v>
+      </c>
+      <c r="B77">
+        <v>49702792</v>
+      </c>
+      <c r="C77">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>52130304</v>
+      </c>
+      <c r="B78">
+        <v>49702792</v>
+      </c>
+      <c r="C78">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>52132996</v>
+      </c>
+      <c r="B79">
+        <v>37556862</v>
+      </c>
+      <c r="C79">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>52133192</v>
+      </c>
+      <c r="B80">
+        <v>174564264</v>
+      </c>
+      <c r="C80">
+        <v>136787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>52132862</v>
+      </c>
+      <c r="B81">
+        <v>405491676</v>
+      </c>
+      <c r="C81">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>52132559</v>
+      </c>
+      <c r="B82">
+        <v>35320861</v>
+      </c>
+      <c r="C82">
+        <v>9978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>52132010</v>
+      </c>
+      <c r="B83">
+        <v>1113613</v>
+      </c>
+      <c r="C83">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>52132210</v>
+      </c>
+      <c r="B84">
+        <v>385874803</v>
+      </c>
+      <c r="C84">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>52132225</v>
+      </c>
+      <c r="B85">
+        <v>35843842</v>
+      </c>
+      <c r="C85">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>52132314</v>
+      </c>
+      <c r="B86">
+        <v>65230731</v>
+      </c>
+      <c r="C86">
+        <v>94124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>52131871</v>
+      </c>
+      <c r="B87">
+        <v>375134964</v>
+      </c>
+      <c r="C87">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>52131461</v>
+      </c>
+      <c r="B88">
+        <v>406691806</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>52132607</v>
+      </c>
+      <c r="B89">
+        <v>24595217</v>
+      </c>
+      <c r="C89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>52132439</v>
+      </c>
+      <c r="B90">
+        <v>52808833</v>
+      </c>
+      <c r="C90">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>52130861</v>
+      </c>
+      <c r="B91">
+        <v>19232286</v>
+      </c>
+      <c r="C91">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>52131590</v>
+      </c>
+      <c r="B92">
+        <v>3908139</v>
+      </c>
+      <c r="C92">
+        <v>25284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>52131036</v>
+      </c>
+      <c r="B93">
+        <v>19232286</v>
+      </c>
+      <c r="C93">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>52129838</v>
+      </c>
+      <c r="B94">
+        <v>36235653</v>
+      </c>
+      <c r="C94">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>52131037</v>
+      </c>
+      <c r="B95">
+        <v>67334304</v>
+      </c>
+      <c r="C95">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>52131659</v>
+      </c>
+      <c r="B96">
+        <v>398517334</v>
+      </c>
+      <c r="C96">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>52131189</v>
+      </c>
+      <c r="B97">
+        <v>402902474</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>52129223</v>
+      </c>
+      <c r="B98">
+        <v>419339946</v>
+      </c>
+      <c r="C98">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>52131339</v>
+      </c>
+      <c r="B99">
+        <v>423248691</v>
+      </c>
+      <c r="C99">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>52131183</v>
+      </c>
+      <c r="B100">
+        <v>423248691</v>
+      </c>
+      <c r="C100">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>52131248</v>
+      </c>
+      <c r="B101">
+        <v>423248691</v>
+      </c>
+      <c r="C101">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>52131395</v>
+      </c>
+      <c r="B102">
+        <v>27655431</v>
+      </c>
+      <c r="C102">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>52130897</v>
+      </c>
+      <c r="B103">
+        <v>19232286</v>
+      </c>
+      <c r="C103">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>52131220</v>
+      </c>
+      <c r="B104">
+        <v>423248691</v>
+      </c>
+      <c r="C104">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>52128348</v>
+      </c>
+      <c r="B105">
+        <v>49702792</v>
+      </c>
+      <c r="C105">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>52131294</v>
+      </c>
+      <c r="B106">
+        <v>423248691</v>
+      </c>
+      <c r="C106">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>52131447</v>
+      </c>
+      <c r="B107">
+        <v>24595217</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>52131238</v>
+      </c>
+      <c r="B108">
+        <v>423248691</v>
+      </c>
+      <c r="C108">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>52131314</v>
+      </c>
+      <c r="B109">
+        <v>423248691</v>
+      </c>
+      <c r="C109">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>52130857</v>
+      </c>
+      <c r="B110">
+        <v>19232286</v>
+      </c>
+      <c r="C110">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>52131320</v>
+      </c>
+      <c r="B111">
+        <v>423248691</v>
+      </c>
+      <c r="C111">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>52130796</v>
+      </c>
+      <c r="B112">
+        <v>19232286</v>
+      </c>
+      <c r="C112">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>52131308</v>
+      </c>
+      <c r="B113">
+        <v>423248691</v>
+      </c>
+      <c r="C113">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>52131216</v>
+      </c>
+      <c r="B114">
+        <v>423248691</v>
+      </c>
+      <c r="C114">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>52131214</v>
+      </c>
+      <c r="B115">
+        <v>423248691</v>
+      </c>
+      <c r="C115">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>52131262</v>
+      </c>
+      <c r="B116">
+        <v>423248691</v>
+      </c>
+      <c r="C116">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>52131247</v>
+      </c>
+      <c r="B117">
+        <v>423248691</v>
+      </c>
+      <c r="C117">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>52131211</v>
+      </c>
+      <c r="B118">
+        <v>423248691</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>52131191</v>
+      </c>
+      <c r="B119">
+        <v>423248691</v>
+      </c>
+      <c r="C119">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>52131201</v>
+      </c>
+      <c r="B120">
+        <v>423248691</v>
+      </c>
+      <c r="C120">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>52131226</v>
+      </c>
+      <c r="B121">
+        <v>423248691</v>
+      </c>
+      <c r="C121">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>52131185</v>
+      </c>
+      <c r="B122">
+        <v>423248691</v>
+      </c>
+      <c r="C122">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>52129990</v>
+      </c>
+      <c r="B123">
+        <v>394474058</v>
+      </c>
+      <c r="C123">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>52130766</v>
+      </c>
+      <c r="B124">
+        <v>398516159</v>
+      </c>
+      <c r="C124">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>52131075</v>
+      </c>
+      <c r="B125">
+        <v>18330034</v>
+      </c>
+      <c r="C125">
+        <v>33246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>52130629</v>
+      </c>
+      <c r="B126">
+        <v>364340710</v>
+      </c>
+      <c r="C126">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>52130737</v>
+      </c>
+      <c r="B127">
+        <v>326371021</v>
+      </c>
+      <c r="C127">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>52130217</v>
+      </c>
+      <c r="B128">
+        <v>385874803</v>
+      </c>
+      <c r="C128">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>52129859</v>
+      </c>
+      <c r="B129">
+        <v>167354004</v>
+      </c>
+      <c r="C129">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>52128511</v>
+      </c>
+      <c r="B130">
+        <v>7951886</v>
+      </c>
+      <c r="C130">
+        <v>171578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>52128439</v>
+      </c>
+      <c r="B131">
+        <v>327715472</v>
+      </c>
+      <c r="C131">
+        <v>309882</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>52125694</v>
+      </c>
+      <c r="B132">
+        <v>70761346</v>
+      </c>
+      <c r="C132">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>52127794</v>
+      </c>
+      <c r="B133">
+        <v>15482108</v>
+      </c>
+      <c r="C133">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>52129464</v>
+      </c>
+      <c r="B134">
+        <v>232617</v>
+      </c>
+      <c r="C134">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>52129743</v>
+      </c>
+      <c r="B135">
+        <v>27655431</v>
+      </c>
+      <c r="C135">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>52129081</v>
+      </c>
+      <c r="B136">
+        <v>360426057</v>
+      </c>
+      <c r="C136">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>52129261</v>
+      </c>
+      <c r="B137">
+        <v>331503709</v>
+      </c>
+      <c r="C137">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>52129543</v>
+      </c>
+      <c r="B138">
+        <v>322595986</v>
+      </c>
+      <c r="C138">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>52128899</v>
+      </c>
+      <c r="B139">
+        <v>388194385</v>
+      </c>
+      <c r="C139">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>52127923</v>
+      </c>
+      <c r="B140">
+        <v>354258721</v>
+      </c>
+      <c r="C140">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>52124260</v>
+      </c>
+      <c r="B141">
+        <v>70761346</v>
+      </c>
+      <c r="C141">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>52128462</v>
+      </c>
+      <c r="B142">
+        <v>2092340</v>
+      </c>
+      <c r="C142">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>52128340</v>
+      </c>
+      <c r="B143">
+        <v>385874803</v>
+      </c>
+      <c r="C143">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>52128384</v>
+      </c>
+      <c r="B144">
+        <v>309305196</v>
+      </c>
+      <c r="C144">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>52128364</v>
+      </c>
+      <c r="B145">
+        <v>320359638</v>
+      </c>
+      <c r="C145">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>52127966</v>
+      </c>
+      <c r="B146">
+        <v>406691806</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>52126638</v>
+      </c>
+      <c r="B147">
+        <v>40305856</v>
+      </c>
+      <c r="C147">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>52128336</v>
+      </c>
+      <c r="B148">
+        <v>48030548</v>
+      </c>
+      <c r="C148">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>52128425</v>
+      </c>
+      <c r="B149">
+        <v>410715296</v>
+      </c>
+      <c r="C149">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>52128370</v>
+      </c>
+      <c r="B150">
+        <v>11289703</v>
+      </c>
+      <c r="C150">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>52127915</v>
+      </c>
+      <c r="B151">
+        <v>410715296</v>
+      </c>
+      <c r="C151">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>52128287</v>
+      </c>
+      <c r="B152">
+        <v>249013949</v>
+      </c>
+      <c r="C152">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>52127478</v>
+      </c>
+      <c r="B153">
+        <v>403758492</v>
+      </c>
+      <c r="C153">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>52128283</v>
+      </c>
+      <c r="B154">
+        <v>410715296</v>
+      </c>
+      <c r="C154">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>52128182</v>
+      </c>
+      <c r="B155">
+        <v>410715296</v>
+      </c>
+      <c r="C155">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>52128108</v>
+      </c>
+      <c r="B156">
+        <v>410715296</v>
+      </c>
+      <c r="C156">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>52127977</v>
+      </c>
+      <c r="B157">
+        <v>44258683</v>
+      </c>
+      <c r="C157">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>52127991</v>
+      </c>
+      <c r="B158">
+        <v>67810908</v>
+      </c>
+      <c r="C158">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>52128074</v>
+      </c>
+      <c r="B159">
+        <v>367148624</v>
+      </c>
+      <c r="C159">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>52127988</v>
+      </c>
+      <c r="B160">
+        <v>392528008</v>
+      </c>
+      <c r="C160">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>52128003</v>
+      </c>
+      <c r="B161">
+        <v>410715296</v>
+      </c>
+      <c r="C161">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>52127855</v>
+      </c>
+      <c r="B162">
+        <v>410715296</v>
+      </c>
+      <c r="C162">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>52127998</v>
+      </c>
+      <c r="B163">
+        <v>14725631</v>
+      </c>
+      <c r="C163">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>52127724</v>
+      </c>
+      <c r="B164">
+        <v>402902048</v>
+      </c>
+      <c r="C164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>52127784</v>
+      </c>
+      <c r="B165">
+        <v>402902474</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>52127758</v>
+      </c>
+      <c r="B166">
+        <v>410715296</v>
+      </c>
+      <c r="C166">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>52127596</v>
+      </c>
+      <c r="B167">
+        <v>130068319</v>
+      </c>
+      <c r="C167">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>52124161</v>
+      </c>
+      <c r="B168">
+        <v>416531473</v>
+      </c>
+      <c r="C168">
+        <v>22881</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>52127572</v>
+      </c>
+      <c r="B169">
+        <v>410715296</v>
+      </c>
+      <c r="C169">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>52127143</v>
+      </c>
+      <c r="B170">
+        <v>27655431</v>
+      </c>
+      <c r="C170">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>52127106</v>
+      </c>
+      <c r="B171">
+        <v>350053424</v>
+      </c>
+      <c r="C171">
+        <v>7365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>52127331</v>
+      </c>
+      <c r="B172">
+        <v>384547609</v>
+      </c>
+      <c r="C172">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>52127096</v>
+      </c>
+      <c r="B173">
+        <v>410715296</v>
+      </c>
+      <c r="C173">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>52127012</v>
+      </c>
+      <c r="B174">
+        <v>410715296</v>
+      </c>
+      <c r="C174">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>52126140</v>
+      </c>
+      <c r="B175">
+        <v>20450477</v>
+      </c>
+      <c r="C175">
+        <v>19823</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>52124401</v>
+      </c>
+      <c r="B176">
+        <v>31872883</v>
+      </c>
+      <c r="C176">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>52126449</v>
+      </c>
+      <c r="B177">
+        <v>385874803</v>
+      </c>
+      <c r="C177">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>52125850</v>
+      </c>
+      <c r="B178">
+        <v>22539907</v>
+      </c>
+      <c r="C178">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>52126373</v>
+      </c>
+      <c r="B179">
+        <v>375134964</v>
+      </c>
+      <c r="C179">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>52126869</v>
+      </c>
+      <c r="B180">
+        <v>410715296</v>
+      </c>
+      <c r="C180">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>52126696</v>
+      </c>
+      <c r="B181">
+        <v>400955963</v>
+      </c>
+      <c r="C181">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>52125916</v>
+      </c>
+      <c r="B182">
+        <v>45893835</v>
+      </c>
+      <c r="C182">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>52125999</v>
+      </c>
+      <c r="B183">
+        <v>344122496</v>
+      </c>
+      <c r="C183">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>52126159</v>
+      </c>
+      <c r="B184">
+        <v>167354004</v>
+      </c>
+      <c r="C184">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>52125313</v>
+      </c>
+      <c r="B185">
+        <v>11478277</v>
+      </c>
+      <c r="C185">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>52124995</v>
+      </c>
+      <c r="B186">
+        <v>22539907</v>
+      </c>
+      <c r="C186">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>52124773</v>
+      </c>
+      <c r="B187">
+        <v>50868655</v>
+      </c>
+      <c r="C187">
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>52123952</v>
+      </c>
+      <c r="B188">
+        <v>421320812</v>
+      </c>
+      <c r="C188">
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>52126008</v>
+      </c>
+      <c r="B189">
+        <v>326371021</v>
+      </c>
+      <c r="C189">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>52125584</v>
+      </c>
+      <c r="B190">
+        <v>344122496</v>
+      </c>
+      <c r="C190">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>52125301</v>
+      </c>
+      <c r="B191">
+        <v>352558958</v>
+      </c>
+      <c r="C191">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>52124823</v>
+      </c>
+      <c r="B192">
+        <v>406691806</v>
+      </c>
+      <c r="C192">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>52123988</v>
+      </c>
+      <c r="B193">
+        <v>402591943</v>
+      </c>
+      <c r="C193">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>52124695</v>
+      </c>
+      <c r="B194">
+        <v>385874803</v>
+      </c>
+      <c r="C194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>52123990</v>
+      </c>
+      <c r="B195">
+        <v>10943657</v>
+      </c>
+      <c r="C195">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>52124643</v>
+      </c>
+      <c r="B196">
+        <v>402902474</v>
+      </c>
+      <c r="C196">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>52124444</v>
+      </c>
+      <c r="B197">
+        <v>426978533</v>
+      </c>
+      <c r="C197">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>52122222</v>
+      </c>
+      <c r="B198">
+        <v>12059252</v>
+      </c>
+      <c r="C198">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>52124764</v>
+      </c>
+      <c r="B199">
+        <v>167354004</v>
+      </c>
+      <c r="C199">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>52124534</v>
+      </c>
+      <c r="B200">
+        <v>402902048</v>
+      </c>
+      <c r="C200">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
